--- a/BackTest/2020-01-21 BackTest PCM.xlsx
+++ b/BackTest/2020-01-21 BackTest PCM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1294,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1539,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1831,6 +1875,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1872,6 +1917,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,6 +1959,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,6 +1995,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1987,6 +2035,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2028,6 +2077,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2069,6 +2119,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2104,6 +2155,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2139,6 +2191,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2174,6 +2227,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2209,6 +2263,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2244,6 +2299,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2283,6 +2339,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2326,6 +2383,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2369,6 +2427,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2412,6 +2471,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2455,6 +2515,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2498,6 +2559,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2539,6 +2601,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2580,6 +2643,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2621,6 +2685,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2662,6 +2727,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2703,6 +2769,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2744,6 +2811,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2785,6 +2853,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2826,6 +2895,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2867,6 +2937,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,6 +2979,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2949,6 +3021,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2990,6 +3063,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3031,6 +3105,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3072,6 +3147,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3113,6 +3189,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3154,6 +3231,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3195,6 +3273,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3236,6 +3315,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3277,6 +3357,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3318,6 +3399,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3359,6 +3441,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3400,6 +3483,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3441,6 +3525,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3482,6 +3567,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3523,6 +3609,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3564,6 +3651,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3605,6 +3693,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3632,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
@@ -3640,11 +3729,14 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>1.049893509127789</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.045640501150601</v>
       </c>
     </row>
     <row r="87">
@@ -3676,17 +3768,12 @@
         <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>1.025045638945233</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3722,6 +3809,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3749,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3757,6 +3845,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3792,6 +3881,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3819,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3827,6 +3917,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3854,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3862,6 +3953,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3897,6 +3989,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3932,6 +4025,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3967,6 +4061,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4002,6 +4097,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4037,6 +4133,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4064,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4072,6 +4169,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4099,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4107,6 +4205,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4134,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4142,6 +4241,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4177,6 +4277,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4212,6 +4313,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4239,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4247,6 +4349,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4274,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4282,6 +4385,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4317,6 +4421,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4344,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4352,6 +4457,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest PCM.xlsx
+++ b/BackTest/2020-01-21 BackTest PCM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.92</v>
+        <v>8.071</v>
       </c>
       <c r="C2" t="n">
-        <v>7.92</v>
+        <v>8.071</v>
       </c>
       <c r="D2" t="n">
-        <v>7.92</v>
+        <v>8.071</v>
       </c>
       <c r="E2" t="n">
-        <v>7.92</v>
+        <v>8.071</v>
       </c>
       <c r="F2" t="n">
-        <v>632.8697</v>
+        <v>2384.2462</v>
       </c>
       <c r="G2" t="n">
-        <v>-2792779.88879479</v>
+        <v>-1266072.1341</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.92</v>
+        <v>8.07</v>
       </c>
       <c r="C3" t="n">
-        <v>7.92</v>
+        <v>8.07</v>
       </c>
       <c r="D3" t="n">
-        <v>7.92</v>
+        <v>8.07</v>
       </c>
       <c r="E3" t="n">
-        <v>7.92</v>
+        <v>8.07</v>
       </c>
       <c r="F3" t="n">
-        <v>16361.2963</v>
+        <v>53625.2335</v>
       </c>
       <c r="G3" t="n">
-        <v>-2792779.88879479</v>
+        <v>-1319697.3676</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.951</v>
+        <v>8.07</v>
       </c>
       <c r="C4" t="n">
-        <v>7.97</v>
+        <v>8.07</v>
       </c>
       <c r="D4" t="n">
-        <v>7.97</v>
+        <v>8.07</v>
       </c>
       <c r="E4" t="n">
-        <v>7.951</v>
+        <v>8.07</v>
       </c>
       <c r="F4" t="n">
-        <v>18451.4255</v>
+        <v>33253.4817</v>
       </c>
       <c r="G4" t="n">
-        <v>-2774328.463294791</v>
+        <v>-1319697.3676</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.981</v>
+        <v>8.063000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>7.971</v>
+        <v>8.063000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>7.981</v>
+        <v>8.063000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>7.971</v>
+        <v>8.063000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>54128.9318</v>
+        <v>49133.2582</v>
       </c>
       <c r="G5" t="n">
-        <v>-2720199.531494791</v>
+        <v>-1368830.625800001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.026999999999999</v>
+        <v>8.022</v>
       </c>
       <c r="C6" t="n">
-        <v>8.026999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="D6" t="n">
-        <v>8.026999999999999</v>
+        <v>8.022</v>
       </c>
       <c r="E6" t="n">
-        <v>8.026999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="F6" t="n">
-        <v>2759</v>
+        <v>420000</v>
       </c>
       <c r="G6" t="n">
-        <v>-2717440.531494791</v>
+        <v>-1788830.625800001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.026999999999999</v>
+        <v>8.022</v>
       </c>
       <c r="C7" t="n">
-        <v>8.026999999999999</v>
+        <v>7.973</v>
       </c>
       <c r="D7" t="n">
-        <v>8.026999999999999</v>
+        <v>8.022</v>
       </c>
       <c r="E7" t="n">
-        <v>8.026999999999999</v>
+        <v>7.973</v>
       </c>
       <c r="F7" t="n">
-        <v>15494.669</v>
+        <v>190127.6765</v>
       </c>
       <c r="G7" t="n">
-        <v>-2717440.531494791</v>
+        <v>-1978958.302300001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.026999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="C8" t="n">
-        <v>8.026999999999999</v>
+        <v>7.87</v>
       </c>
       <c r="D8" t="n">
-        <v>8.026999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="E8" t="n">
-        <v>8.026999999999999</v>
+        <v>7.87</v>
       </c>
       <c r="F8" t="n">
-        <v>74990.4571</v>
+        <v>238742.7432</v>
       </c>
       <c r="G8" t="n">
-        <v>-2717440.531494791</v>
+        <v>-2217701.0455</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.026999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="C9" t="n">
-        <v>8.026999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="D9" t="n">
-        <v>8.026999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="E9" t="n">
-        <v>8.026999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="F9" t="n">
-        <v>2675</v>
+        <v>9997.641097721518</v>
       </c>
       <c r="G9" t="n">
-        <v>-2717440.531494791</v>
+        <v>-2207703.404402279</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.98</v>
+        <v>7.87</v>
       </c>
       <c r="C10" t="n">
-        <v>7.971</v>
+        <v>7.855</v>
       </c>
       <c r="D10" t="n">
-        <v>7.98</v>
+        <v>7.87</v>
       </c>
       <c r="E10" t="n">
-        <v>7.971</v>
+        <v>7.855</v>
       </c>
       <c r="F10" t="n">
-        <v>170444.9841</v>
+        <v>197256.5523</v>
       </c>
       <c r="G10" t="n">
-        <v>-2887885.515594791</v>
+        <v>-2404959.956702279</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.98</v>
+        <v>7.824</v>
       </c>
       <c r="C11" t="n">
-        <v>7.971</v>
+        <v>7.824</v>
       </c>
       <c r="D11" t="n">
-        <v>7.98</v>
+        <v>7.824</v>
       </c>
       <c r="E11" t="n">
-        <v>7.971</v>
+        <v>7.824</v>
       </c>
       <c r="F11" t="n">
-        <v>90485.12609999999</v>
+        <v>112768.7105</v>
       </c>
       <c r="G11" t="n">
-        <v>-2887885.515594791</v>
+        <v>-2517728.667202279</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.02</v>
+        <v>7.824</v>
       </c>
       <c r="C12" t="n">
-        <v>8.02</v>
+        <v>7.809</v>
       </c>
       <c r="D12" t="n">
-        <v>8.02</v>
+        <v>7.824</v>
       </c>
       <c r="E12" t="n">
-        <v>8.02</v>
+        <v>7.809</v>
       </c>
       <c r="F12" t="n">
-        <v>27199.7055</v>
+        <v>439603.5229</v>
       </c>
       <c r="G12" t="n">
-        <v>-2860685.810094791</v>
+        <v>-2957332.190102279</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.028</v>
+        <v>7.752</v>
       </c>
       <c r="C13" t="n">
-        <v>8.028</v>
+        <v>7.752</v>
       </c>
       <c r="D13" t="n">
-        <v>8.028</v>
+        <v>7.752</v>
       </c>
       <c r="E13" t="n">
-        <v>8.028</v>
+        <v>7.752</v>
       </c>
       <c r="F13" t="n">
-        <v>5590.1462</v>
+        <v>6147.7742</v>
       </c>
       <c r="G13" t="n">
-        <v>-2855095.663894791</v>
+        <v>-2963479.964302279</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.028</v>
+        <v>7.808</v>
       </c>
       <c r="C14" t="n">
-        <v>8.028</v>
+        <v>7.808</v>
       </c>
       <c r="D14" t="n">
-        <v>8.028</v>
+        <v>7.808</v>
       </c>
       <c r="E14" t="n">
-        <v>8.028</v>
+        <v>7.808</v>
       </c>
       <c r="F14" t="n">
-        <v>29533.8668</v>
+        <v>9900</v>
       </c>
       <c r="G14" t="n">
-        <v>-2855095.663894791</v>
+        <v>-2953579.964302279</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.038</v>
+        <v>7.808</v>
       </c>
       <c r="C15" t="n">
-        <v>8.038</v>
+        <v>7.81</v>
       </c>
       <c r="D15" t="n">
-        <v>8.038</v>
+        <v>7.81</v>
       </c>
       <c r="E15" t="n">
-        <v>8.038</v>
+        <v>7.808</v>
       </c>
       <c r="F15" t="n">
-        <v>12655.3218</v>
+        <v>16387.0563</v>
       </c>
       <c r="G15" t="n">
-        <v>-2842440.342094791</v>
+        <v>-2937192.908002279</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.111000000000001</v>
+        <v>7.821</v>
       </c>
       <c r="C16" t="n">
-        <v>8.15</v>
+        <v>7.809</v>
       </c>
       <c r="D16" t="n">
-        <v>8.15</v>
+        <v>7.821</v>
       </c>
       <c r="E16" t="n">
-        <v>8.111000000000001</v>
+        <v>7.809</v>
       </c>
       <c r="F16" t="n">
-        <v>9829.287762208589</v>
+        <v>79107.6635</v>
       </c>
       <c r="G16" t="n">
-        <v>-2832611.054332582</v>
+        <v>-3016300.571502279</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="C17" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="D17" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="E17" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="F17" t="n">
-        <v>17435.5693</v>
+        <v>19933.2662</v>
       </c>
       <c r="G17" t="n">
-        <v>-2832611.054332582</v>
+        <v>-3036233.837702279</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="C18" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="D18" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="E18" t="n">
-        <v>8.15</v>
+        <v>7.808</v>
       </c>
       <c r="F18" t="n">
-        <v>38091.32083779141</v>
+        <v>411.4936</v>
       </c>
       <c r="G18" t="n">
-        <v>-2832611.054332582</v>
+        <v>-3036233.837702279</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.15</v>
+        <v>7.885</v>
       </c>
       <c r="C19" t="n">
-        <v>8.018000000000001</v>
+        <v>7.885</v>
       </c>
       <c r="D19" t="n">
-        <v>8.15</v>
+        <v>7.885</v>
       </c>
       <c r="E19" t="n">
-        <v>8.018000000000001</v>
+        <v>7.885</v>
       </c>
       <c r="F19" t="n">
-        <v>146265.4436622086</v>
+        <v>2536.461</v>
       </c>
       <c r="G19" t="n">
-        <v>-2978876.497994791</v>
+        <v>-3033697.376702279</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.01</v>
+        <v>7.885</v>
       </c>
       <c r="C20" t="n">
-        <v>8.01</v>
+        <v>7.89</v>
       </c>
       <c r="D20" t="n">
-        <v>8.01</v>
+        <v>7.89</v>
       </c>
       <c r="E20" t="n">
-        <v>8.01</v>
+        <v>7.885</v>
       </c>
       <c r="F20" t="n">
-        <v>15972.3842</v>
+        <v>76571.2025</v>
       </c>
       <c r="G20" t="n">
-        <v>-2994848.882194791</v>
+        <v>-2957126.174202279</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.018000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C21" t="n">
-        <v>8.018000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="D21" t="n">
-        <v>8.018000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="E21" t="n">
-        <v>8.018000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="F21" t="n">
-        <v>6220.4167</v>
+        <v>19933.2662</v>
       </c>
       <c r="G21" t="n">
-        <v>-2988628.465494791</v>
+        <v>-2957126.174202279</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.018000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="C22" t="n">
-        <v>8.018000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="D22" t="n">
-        <v>8.018000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="E22" t="n">
-        <v>8.018000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="F22" t="n">
-        <v>97167.4631377914</v>
+        <v>12544.0302</v>
       </c>
       <c r="G22" t="n">
-        <v>-2988628.465494791</v>
+        <v>-2944582.144002279</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.019</v>
+        <v>7.94</v>
       </c>
       <c r="C23" t="n">
-        <v>8.019</v>
+        <v>7.949</v>
       </c>
       <c r="D23" t="n">
-        <v>8.019</v>
+        <v>7.949</v>
       </c>
       <c r="E23" t="n">
-        <v>8.019</v>
+        <v>7.94</v>
       </c>
       <c r="F23" t="n">
-        <v>2869.3452</v>
+        <v>168260.5285</v>
       </c>
       <c r="G23" t="n">
-        <v>-2985759.120294791</v>
+        <v>-2776321.615502279</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.019</v>
+        <v>8.042</v>
       </c>
       <c r="C24" t="n">
-        <v>8.019</v>
+        <v>8.042</v>
       </c>
       <c r="D24" t="n">
-        <v>8.019</v>
+        <v>8.042</v>
       </c>
       <c r="E24" t="n">
-        <v>8.019</v>
+        <v>8.042</v>
       </c>
       <c r="F24" t="n">
-        <v>30026.4785</v>
+        <v>2536.461</v>
       </c>
       <c r="G24" t="n">
-        <v>-2985759.120294791</v>
+        <v>-2773785.154502279</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.179</v>
+        <v>8.199</v>
       </c>
       <c r="C25" t="n">
-        <v>8.179</v>
+        <v>8.199</v>
       </c>
       <c r="D25" t="n">
-        <v>8.179</v>
+        <v>8.199</v>
       </c>
       <c r="E25" t="n">
-        <v>8.179</v>
+        <v>8.199</v>
       </c>
       <c r="F25" t="n">
-        <v>69</v>
+        <v>2678.862407488718</v>
       </c>
       <c r="G25" t="n">
-        <v>-2985690.120294791</v>
+        <v>-2771106.29209479</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.179</v>
+        <v>7.97</v>
       </c>
       <c r="C26" t="n">
-        <v>8.179</v>
+        <v>7.97</v>
       </c>
       <c r="D26" t="n">
-        <v>8.179</v>
+        <v>7.97</v>
       </c>
       <c r="E26" t="n">
-        <v>8.179</v>
+        <v>7.97</v>
       </c>
       <c r="F26" t="n">
-        <v>6097.9718</v>
+        <v>18253.669</v>
       </c>
       <c r="G26" t="n">
-        <v>-2985690.120294791</v>
+        <v>-2789359.96109479</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.179</v>
+        <v>7.95</v>
       </c>
       <c r="C27" t="n">
-        <v>8.179</v>
+        <v>7.95</v>
       </c>
       <c r="D27" t="n">
-        <v>8.179</v>
+        <v>7.95</v>
       </c>
       <c r="E27" t="n">
-        <v>8.179</v>
+        <v>7.95</v>
       </c>
       <c r="F27" t="n">
-        <v>136.1481</v>
+        <v>2787.058</v>
       </c>
       <c r="G27" t="n">
-        <v>-2985690.120294791</v>
+        <v>-2792147.01909479</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.028</v>
+        <v>7.95</v>
       </c>
       <c r="C28" t="n">
-        <v>8.028</v>
+        <v>7.95</v>
       </c>
       <c r="D28" t="n">
-        <v>8.028</v>
+        <v>7.95</v>
       </c>
       <c r="E28" t="n">
-        <v>8.028</v>
+        <v>7.95</v>
       </c>
       <c r="F28" t="n">
-        <v>136.1481</v>
+        <v>331.4221</v>
       </c>
       <c r="G28" t="n">
-        <v>-2985826.268394791</v>
+        <v>-2792147.01909479</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.028</v>
+        <v>7.95</v>
       </c>
       <c r="C29" t="n">
-        <v>8.018000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="D29" t="n">
-        <v>8.028</v>
+        <v>7.95</v>
       </c>
       <c r="E29" t="n">
-        <v>8.018000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="F29" t="n">
-        <v>26865.36586220859</v>
+        <v>31284.5599</v>
       </c>
       <c r="G29" t="n">
-        <v>-3012691.634256999</v>
+        <v>-2792147.01909479</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.018000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="C30" t="n">
-        <v>8.018000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="D30" t="n">
-        <v>8.018000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="E30" t="n">
-        <v>8.018000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="F30" t="n">
-        <v>18661.254</v>
+        <v>5286.2071</v>
       </c>
       <c r="G30" t="n">
-        <v>-3012691.634256999</v>
+        <v>-2792147.01909479</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="C31" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="D31" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="E31" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="F31" t="n">
-        <v>11955.481</v>
+        <v>632.8697</v>
       </c>
       <c r="G31" t="n">
-        <v>-3000736.153256999</v>
+        <v>-2792779.88879479</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="C32" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="D32" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="E32" t="n">
-        <v>8.177</v>
+        <v>7.92</v>
       </c>
       <c r="F32" t="n">
-        <v>36171.1914</v>
+        <v>16361.2963</v>
       </c>
       <c r="G32" t="n">
-        <v>-3000736.153256999</v>
+        <v>-2792779.88879479</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.09</v>
+        <v>7.951</v>
       </c>
       <c r="C33" t="n">
-        <v>8.08</v>
+        <v>7.97</v>
       </c>
       <c r="D33" t="n">
-        <v>8.09</v>
+        <v>7.97</v>
       </c>
       <c r="E33" t="n">
-        <v>8.08</v>
+        <v>7.951</v>
       </c>
       <c r="F33" t="n">
-        <v>52928.1719</v>
+        <v>18451.4255</v>
       </c>
       <c r="G33" t="n">
-        <v>-3053664.325156999</v>
+        <v>-2774328.463294791</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.018000000000001</v>
+        <v>7.981</v>
       </c>
       <c r="C34" t="n">
-        <v>7.972</v>
+        <v>7.971</v>
       </c>
       <c r="D34" t="n">
-        <v>8.018000000000001</v>
+        <v>7.981</v>
       </c>
       <c r="E34" t="n">
-        <v>7.972</v>
+        <v>7.971</v>
       </c>
       <c r="F34" t="n">
-        <v>100000</v>
+        <v>54128.9318</v>
       </c>
       <c r="G34" t="n">
-        <v>-3153664.325156999</v>
+        <v>-2720199.531494791</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.972</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>7.972</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>7.972</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>7.972</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>5619.4897</v>
+        <v>2759</v>
       </c>
       <c r="G35" t="n">
-        <v>-3153664.325156999</v>
+        <v>-2717440.531494791</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.975</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>7.972</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>7.975</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>7.972</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>14074.7587</v>
+        <v>15494.669</v>
       </c>
       <c r="G36" t="n">
-        <v>-3153664.325156999</v>
+        <v>-2717440.531494791</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.95</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>7.95</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>7.95</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>7.95</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>2060.7463</v>
+        <v>74990.4571</v>
       </c>
       <c r="G37" t="n">
-        <v>-3155725.071457</v>
+        <v>-2717440.531494791</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.855</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>7.83</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>7.855</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>7.83</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>20103.6961</v>
+        <v>2675</v>
       </c>
       <c r="G38" t="n">
-        <v>-3175828.767556999</v>
+        <v>-2717440.531494791</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.826</v>
+        <v>7.98</v>
       </c>
       <c r="C39" t="n">
-        <v>7.822</v>
+        <v>7.971</v>
       </c>
       <c r="D39" t="n">
-        <v>7.826</v>
+        <v>7.98</v>
       </c>
       <c r="E39" t="n">
-        <v>7.822</v>
+        <v>7.971</v>
       </c>
       <c r="F39" t="n">
-        <v>35633.6904</v>
+        <v>170444.9841</v>
       </c>
       <c r="G39" t="n">
-        <v>-3211462.457957</v>
+        <v>-2887885.515594791</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.824</v>
+        <v>7.98</v>
       </c>
       <c r="C40" t="n">
-        <v>7.823</v>
+        <v>7.971</v>
       </c>
       <c r="D40" t="n">
-        <v>7.824</v>
+        <v>7.98</v>
       </c>
       <c r="E40" t="n">
-        <v>7.823</v>
+        <v>7.971</v>
       </c>
       <c r="F40" t="n">
-        <v>146292.5898</v>
+        <v>90485.12609999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-3065169.868156999</v>
+        <v>-2887885.515594791</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,35 +1842,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.947</v>
+        <v>8.02</v>
       </c>
       <c r="C41" t="n">
-        <v>7.947</v>
+        <v>8.02</v>
       </c>
       <c r="D41" t="n">
-        <v>7.947</v>
+        <v>8.02</v>
       </c>
       <c r="E41" t="n">
-        <v>7.947</v>
+        <v>8.02</v>
       </c>
       <c r="F41" t="n">
-        <v>133.1319994966654</v>
+        <v>27199.7055</v>
       </c>
       <c r="G41" t="n">
-        <v>-3065036.736157503</v>
+        <v>-2860685.810094791</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>7.823</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7.823</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1882,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.947</v>
+        <v>8.028</v>
       </c>
       <c r="C42" t="n">
-        <v>7.947</v>
+        <v>8.028</v>
       </c>
       <c r="D42" t="n">
-        <v>7.947</v>
+        <v>8.028</v>
       </c>
       <c r="E42" t="n">
-        <v>7.947</v>
+        <v>8.028</v>
       </c>
       <c r="F42" t="n">
-        <v>380.5222</v>
+        <v>5590.1462</v>
       </c>
       <c r="G42" t="n">
-        <v>-3065036.736157503</v>
+        <v>-2855095.663894791</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1906,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>7.823</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1924,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.947</v>
+        <v>8.028</v>
       </c>
       <c r="C43" t="n">
-        <v>7.833</v>
+        <v>8.028</v>
       </c>
       <c r="D43" t="n">
-        <v>7.947</v>
+        <v>8.028</v>
       </c>
       <c r="E43" t="n">
-        <v>7.833</v>
+        <v>8.028</v>
       </c>
       <c r="F43" t="n">
-        <v>29080.59480050334</v>
+        <v>29533.8668</v>
       </c>
       <c r="G43" t="n">
-        <v>-3094117.330958006</v>
+        <v>-2855095.663894791</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1948,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>7.823</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1966,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.948</v>
+        <v>8.038</v>
       </c>
       <c r="C44" t="n">
-        <v>7.947</v>
+        <v>8.038</v>
       </c>
       <c r="D44" t="n">
-        <v>7.975</v>
+        <v>8.038</v>
       </c>
       <c r="E44" t="n">
-        <v>7.947</v>
+        <v>8.038</v>
       </c>
       <c r="F44" t="n">
-        <v>49080.5948</v>
+        <v>12655.3218</v>
       </c>
       <c r="G44" t="n">
-        <v>-3045036.736158006</v>
+        <v>-2842440.342094791</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2002,35 +1986,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.947</v>
+        <v>8.111000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="D45" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="E45" t="n">
-        <v>7.947</v>
+        <v>8.111000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>17602.5965</v>
+        <v>9829.287762208589</v>
       </c>
       <c r="G45" t="n">
-        <v>-3045036.736158006</v>
+        <v>-2832611.054332582</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="K45" t="n">
-        <v>7.947</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
@@ -2042,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.975</v>
+        <v>8.15</v>
       </c>
       <c r="C46" t="n">
-        <v>7.975</v>
+        <v>8.15</v>
       </c>
       <c r="D46" t="n">
-        <v>7.975</v>
+        <v>8.15</v>
       </c>
       <c r="E46" t="n">
-        <v>7.975</v>
+        <v>8.15</v>
       </c>
       <c r="F46" t="n">
-        <v>4323.3258</v>
+        <v>17435.5693</v>
       </c>
       <c r="G46" t="n">
-        <v>-3040713.410358006</v>
+        <v>-2832611.054332582</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2066,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2084,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="C47" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="D47" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="E47" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="F47" t="n">
-        <v>36007.383</v>
+        <v>38091.32083779141</v>
       </c>
       <c r="G47" t="n">
-        <v>-3076720.793358006</v>
+        <v>-2832611.054332582</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2108,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2126,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="C48" t="n">
-        <v>7.947</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>7.947</v>
+        <v>8.15</v>
       </c>
       <c r="E48" t="n">
-        <v>7.947</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>77433.007</v>
+        <v>146265.4436622086</v>
       </c>
       <c r="G48" t="n">
-        <v>-3076720.793358006</v>
+        <v>-2978876.497994791</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2162,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.947</v>
+        <v>8.01</v>
       </c>
       <c r="C49" t="n">
-        <v>7.947</v>
+        <v>8.01</v>
       </c>
       <c r="D49" t="n">
-        <v>7.947</v>
+        <v>8.01</v>
       </c>
       <c r="E49" t="n">
-        <v>7.947</v>
+        <v>8.01</v>
       </c>
       <c r="F49" t="n">
-        <v>11319</v>
+        <v>15972.3842</v>
       </c>
       <c r="G49" t="n">
-        <v>-3076720.793358006</v>
+        <v>-2994848.882194791</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2198,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.947</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>7.9</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>7.947</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>7.9</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>6439.4869</v>
+        <v>6220.4167</v>
       </c>
       <c r="G50" t="n">
-        <v>-3083160.280258005</v>
+        <v>-2988628.465494791</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2234,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.9</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>7.888</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>7.9</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>7.888</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>19233.9955</v>
+        <v>97167.4631377914</v>
       </c>
       <c r="G51" t="n">
-        <v>-3102394.275758006</v>
+        <v>-2988628.465494791</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2270,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.888</v>
+        <v>8.019</v>
       </c>
       <c r="C52" t="n">
-        <v>7.888</v>
+        <v>8.019</v>
       </c>
       <c r="D52" t="n">
-        <v>7.888</v>
+        <v>8.019</v>
       </c>
       <c r="E52" t="n">
-        <v>7.888</v>
+        <v>8.019</v>
       </c>
       <c r="F52" t="n">
-        <v>7169.8992</v>
+        <v>2869.3452</v>
       </c>
       <c r="G52" t="n">
-        <v>-3102394.275758006</v>
+        <v>-2985759.120294791</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2306,35 +2274,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.9</v>
+        <v>8.019</v>
       </c>
       <c r="C53" t="n">
-        <v>7.9</v>
+        <v>8.019</v>
       </c>
       <c r="D53" t="n">
-        <v>7.9</v>
+        <v>8.019</v>
       </c>
       <c r="E53" t="n">
-        <v>7.9</v>
+        <v>8.019</v>
       </c>
       <c r="F53" t="n">
-        <v>16045.0495</v>
+        <v>30026.4785</v>
       </c>
       <c r="G53" t="n">
-        <v>-3086349.226258005</v>
+        <v>-2985759.120294791</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="K53" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2346,40 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.9</v>
+        <v>8.179</v>
       </c>
       <c r="C54" t="n">
-        <v>7.836</v>
+        <v>8.179</v>
       </c>
       <c r="D54" t="n">
-        <v>7.9</v>
+        <v>8.179</v>
       </c>
       <c r="E54" t="n">
-        <v>7.836</v>
+        <v>8.179</v>
       </c>
       <c r="F54" t="n">
-        <v>181762.0885</v>
+        <v>69</v>
       </c>
       <c r="G54" t="n">
-        <v>-3268111.314758006</v>
+        <v>-2985690.120294791</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K54" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2390,40 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.94</v>
+        <v>8.179</v>
       </c>
       <c r="C55" t="n">
-        <v>7.94</v>
+        <v>8.179</v>
       </c>
       <c r="D55" t="n">
-        <v>7.94</v>
+        <v>8.179</v>
       </c>
       <c r="E55" t="n">
-        <v>7.94</v>
+        <v>8.179</v>
       </c>
       <c r="F55" t="n">
-        <v>755.6675062972292</v>
+        <v>6097.9718</v>
       </c>
       <c r="G55" t="n">
-        <v>-3267355.647251708</v>
+        <v>-2985690.120294791</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>7.836</v>
-      </c>
-      <c r="K55" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2434,40 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.93</v>
+        <v>8.179</v>
       </c>
       <c r="C56" t="n">
-        <v>7.93</v>
+        <v>8.179</v>
       </c>
       <c r="D56" t="n">
-        <v>7.93</v>
+        <v>8.179</v>
       </c>
       <c r="E56" t="n">
-        <v>7.93</v>
+        <v>8.179</v>
       </c>
       <c r="F56" t="n">
-        <v>19585.0882</v>
+        <v>136.1481</v>
       </c>
       <c r="G56" t="n">
-        <v>-3286940.735451709</v>
+        <v>-2985690.120294791</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="K56" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2478,40 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.85</v>
+        <v>8.028</v>
       </c>
       <c r="C57" t="n">
-        <v>7.85</v>
+        <v>8.028</v>
       </c>
       <c r="D57" t="n">
-        <v>7.85</v>
+        <v>8.028</v>
       </c>
       <c r="E57" t="n">
-        <v>7.85</v>
+        <v>8.028</v>
       </c>
       <c r="F57" t="n">
-        <v>26403.8948</v>
+        <v>136.1481</v>
       </c>
       <c r="G57" t="n">
-        <v>-3313344.630251708</v>
+        <v>-2985826.268394791</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2522,40 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.93</v>
+        <v>8.028</v>
       </c>
       <c r="C58" t="n">
-        <v>7.93</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>7.93</v>
+        <v>8.028</v>
       </c>
       <c r="E58" t="n">
-        <v>7.93</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>17047.5088</v>
+        <v>26865.36586220859</v>
       </c>
       <c r="G58" t="n">
-        <v>-3296297.121451708</v>
+        <v>-3012691.634256999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2566,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.94</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>8.010999999999999</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>8.010999999999999</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>7.94</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>218864.6291937028</v>
+        <v>18661.254</v>
       </c>
       <c r="G59" t="n">
-        <v>-3077432.492258006</v>
+        <v>-3012691.634256999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2590,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2608,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="C60" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="D60" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="E60" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="F60" t="n">
-        <v>107952.1817</v>
+        <v>11955.481</v>
       </c>
       <c r="G60" t="n">
-        <v>-3077432.492258006</v>
+        <v>-3000736.153256999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2632,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="C61" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="D61" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="E61" t="n">
-        <v>8.010999999999999</v>
+        <v>8.177</v>
       </c>
       <c r="F61" t="n">
-        <v>160897.3913</v>
+        <v>36171.1914</v>
       </c>
       <c r="G61" t="n">
-        <v>-3077432.492258006</v>
+        <v>-3000736.153256999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2674,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2695,19 +2601,19 @@
         <v>8.09</v>
       </c>
       <c r="C62" t="n">
-        <v>8.09</v>
+        <v>8.08</v>
       </c>
       <c r="D62" t="n">
         <v>8.09</v>
       </c>
       <c r="E62" t="n">
-        <v>8.09</v>
+        <v>8.08</v>
       </c>
       <c r="F62" t="n">
-        <v>69</v>
+        <v>52928.1719</v>
       </c>
       <c r="G62" t="n">
-        <v>-3077363.492258006</v>
+        <v>-3053664.325156999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2716,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2734,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.007999999999999</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>8.007999999999999</v>
+        <v>7.972</v>
       </c>
       <c r="D63" t="n">
-        <v>8.007999999999999</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>8.007999999999999</v>
+        <v>7.972</v>
       </c>
       <c r="F63" t="n">
-        <v>17982.017</v>
+        <v>100000</v>
       </c>
       <c r="G63" t="n">
-        <v>-3095345.509258006</v>
+        <v>-3153664.325156999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2758,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2776,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.007</v>
+        <v>7.972</v>
       </c>
       <c r="C64" t="n">
-        <v>7.993</v>
+        <v>7.972</v>
       </c>
       <c r="D64" t="n">
-        <v>8.007</v>
+        <v>7.972</v>
       </c>
       <c r="E64" t="n">
-        <v>7.993</v>
+        <v>7.972</v>
       </c>
       <c r="F64" t="n">
-        <v>5487.9163</v>
+        <v>5619.4897</v>
       </c>
       <c r="G64" t="n">
-        <v>-3100833.425558006</v>
+        <v>-3153664.325156999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2800,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2818,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.993</v>
+        <v>7.975</v>
       </c>
       <c r="C65" t="n">
-        <v>7.993</v>
+        <v>7.972</v>
       </c>
       <c r="D65" t="n">
-        <v>7.993</v>
+        <v>7.975</v>
       </c>
       <c r="E65" t="n">
-        <v>7.992</v>
+        <v>7.972</v>
       </c>
       <c r="F65" t="n">
-        <v>48487.1838</v>
+        <v>14074.7587</v>
       </c>
       <c r="G65" t="n">
-        <v>-3100833.425558006</v>
+        <v>-3153664.325156999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2842,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2860,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.993</v>
+        <v>7.95</v>
       </c>
       <c r="C66" t="n">
-        <v>7.993</v>
+        <v>7.95</v>
       </c>
       <c r="D66" t="n">
-        <v>7.993</v>
+        <v>7.95</v>
       </c>
       <c r="E66" t="n">
-        <v>7.993</v>
+        <v>7.95</v>
       </c>
       <c r="F66" t="n">
-        <v>27383.8986</v>
+        <v>2060.7463</v>
       </c>
       <c r="G66" t="n">
-        <v>-3100833.425558006</v>
+        <v>-3155725.071457</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2884,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2902,36 +2778,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.007999999999999</v>
+        <v>7.855</v>
       </c>
       <c r="C67" t="n">
-        <v>8.007999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="D67" t="n">
-        <v>8.007999999999999</v>
+        <v>7.855</v>
       </c>
       <c r="E67" t="n">
-        <v>8.007999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="F67" t="n">
-        <v>16082.183</v>
+        <v>20103.6961</v>
       </c>
       <c r="G67" t="n">
-        <v>-3084751.242558006</v>
+        <v>-3175828.767556999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J67" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2944,33 +2820,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.09</v>
+        <v>7.826</v>
       </c>
       <c r="C68" t="n">
-        <v>8.09</v>
+        <v>7.822</v>
       </c>
       <c r="D68" t="n">
-        <v>8.09</v>
+        <v>7.826</v>
       </c>
       <c r="E68" t="n">
-        <v>8.09</v>
+        <v>7.822</v>
       </c>
       <c r="F68" t="n">
-        <v>69</v>
+        <v>35633.6904</v>
       </c>
       <c r="G68" t="n">
-        <v>-3084682.242558006</v>
+        <v>-3211462.457957</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J68" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,33 +2862,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.09</v>
+        <v>7.824</v>
       </c>
       <c r="C69" t="n">
-        <v>8.09</v>
+        <v>7.823</v>
       </c>
       <c r="D69" t="n">
-        <v>8.09</v>
+        <v>7.824</v>
       </c>
       <c r="E69" t="n">
-        <v>8.09</v>
+        <v>7.823</v>
       </c>
       <c r="F69" t="n">
-        <v>10831.4612</v>
+        <v>146292.5898</v>
       </c>
       <c r="G69" t="n">
-        <v>-3084682.242558006</v>
+        <v>-3065169.868156999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J69" t="n">
+        <v>7.822</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,33 +2904,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.09</v>
+        <v>7.947</v>
       </c>
       <c r="C70" t="n">
-        <v>8.09</v>
+        <v>7.947</v>
       </c>
       <c r="D70" t="n">
-        <v>8.09</v>
+        <v>7.947</v>
       </c>
       <c r="E70" t="n">
-        <v>8.09</v>
+        <v>7.947</v>
       </c>
       <c r="F70" t="n">
-        <v>703.2301</v>
+        <v>133.1319994966654</v>
       </c>
       <c r="G70" t="n">
-        <v>-3084682.242558006</v>
+        <v>-3065036.736157503</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J70" t="n">
+        <v>7.823</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,33 +2946,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.130000000000001</v>
+        <v>7.947</v>
       </c>
       <c r="C71" t="n">
-        <v>8.130000000000001</v>
+        <v>7.947</v>
       </c>
       <c r="D71" t="n">
-        <v>8.130000000000001</v>
+        <v>7.947</v>
       </c>
       <c r="E71" t="n">
-        <v>8.130000000000001</v>
+        <v>7.947</v>
       </c>
       <c r="F71" t="n">
-        <v>2661.9417</v>
+        <v>380.5222</v>
       </c>
       <c r="G71" t="n">
-        <v>-3082020.300858006</v>
+        <v>-3065036.736157503</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J71" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,33 +2988,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.130000000000001</v>
+        <v>7.947</v>
       </c>
       <c r="C72" t="n">
-        <v>8.130000000000001</v>
+        <v>7.833</v>
       </c>
       <c r="D72" t="n">
-        <v>8.130000000000001</v>
+        <v>7.947</v>
       </c>
       <c r="E72" t="n">
-        <v>8.130000000000001</v>
+        <v>7.833</v>
       </c>
       <c r="F72" t="n">
-        <v>9709.8766</v>
+        <v>29080.59480050334</v>
       </c>
       <c r="G72" t="n">
-        <v>-3082020.300858006</v>
+        <v>-3094117.330958006</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J72" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,33 +3030,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.09</v>
+        <v>7.948</v>
       </c>
       <c r="C73" t="n">
-        <v>8.08</v>
+        <v>7.947</v>
       </c>
       <c r="D73" t="n">
-        <v>8.09</v>
+        <v>7.975</v>
       </c>
       <c r="E73" t="n">
-        <v>8.08</v>
+        <v>7.947</v>
       </c>
       <c r="F73" t="n">
-        <v>74626.14079999999</v>
+        <v>49080.5948</v>
       </c>
       <c r="G73" t="n">
-        <v>-3156646.441658006</v>
+        <v>-3045036.736158006</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J73" t="n">
+        <v>7.833</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,22 +3072,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.032</v>
+        <v>7.947</v>
       </c>
       <c r="C74" t="n">
-        <v>8.007999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="D74" t="n">
-        <v>8.032</v>
+        <v>7.947</v>
       </c>
       <c r="E74" t="n">
-        <v>8.007999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="F74" t="n">
-        <v>42431.0588</v>
+        <v>17602.5965</v>
       </c>
       <c r="G74" t="n">
-        <v>-3199077.500458006</v>
+        <v>-3045036.736158006</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3220,9 +3096,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,22 +3112,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.125999999999999</v>
+        <v>7.975</v>
       </c>
       <c r="C75" t="n">
-        <v>8.125999999999999</v>
+        <v>7.975</v>
       </c>
       <c r="D75" t="n">
-        <v>8.125999999999999</v>
+        <v>7.975</v>
       </c>
       <c r="E75" t="n">
-        <v>8.125999999999999</v>
+        <v>7.975</v>
       </c>
       <c r="F75" t="n">
-        <v>62</v>
+        <v>4323.3258</v>
       </c>
       <c r="G75" t="n">
-        <v>-3199015.500458006</v>
+        <v>-3040713.410358006</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3262,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,22 +3152,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.125999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="C76" t="n">
-        <v>8.125999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="D76" t="n">
-        <v>8.125999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="E76" t="n">
-        <v>8.125999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="F76" t="n">
-        <v>89889.0613</v>
+        <v>36007.383</v>
       </c>
       <c r="G76" t="n">
-        <v>-3199015.500458006</v>
+        <v>-3076720.793358006</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3304,9 +3176,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,22 +3192,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.023</v>
+        <v>7.947</v>
       </c>
       <c r="C77" t="n">
-        <v>8.023</v>
+        <v>7.947</v>
       </c>
       <c r="D77" t="n">
-        <v>8.023</v>
+        <v>7.947</v>
       </c>
       <c r="E77" t="n">
-        <v>8.023</v>
+        <v>7.947</v>
       </c>
       <c r="F77" t="n">
-        <v>17948.398</v>
+        <v>77433.007</v>
       </c>
       <c r="G77" t="n">
-        <v>-3216963.898458006</v>
+        <v>-3076720.793358006</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3346,9 +3216,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3364,22 +3232,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.023</v>
+        <v>7.947</v>
       </c>
       <c r="C78" t="n">
-        <v>8.02</v>
+        <v>7.947</v>
       </c>
       <c r="D78" t="n">
-        <v>8.023</v>
+        <v>7.947</v>
       </c>
       <c r="E78" t="n">
-        <v>8.02</v>
+        <v>7.947</v>
       </c>
       <c r="F78" t="n">
-        <v>13521.1573</v>
+        <v>11319</v>
       </c>
       <c r="G78" t="n">
-        <v>-3230485.055758006</v>
+        <v>-3076720.793358006</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3388,9 +3256,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,22 +3272,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8.007999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="C79" t="n">
-        <v>8.007999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="D79" t="n">
-        <v>8.007999999999999</v>
+        <v>7.947</v>
       </c>
       <c r="E79" t="n">
-        <v>8.007999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="F79" t="n">
-        <v>119583.1848</v>
+        <v>6439.4869</v>
       </c>
       <c r="G79" t="n">
-        <v>-3350068.240558006</v>
+        <v>-3083160.280258005</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3430,9 +3296,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,33 +3312,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8.007999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="C80" t="n">
-        <v>8.02</v>
+        <v>7.888</v>
       </c>
       <c r="D80" t="n">
-        <v>8.02</v>
+        <v>7.9</v>
       </c>
       <c r="E80" t="n">
-        <v>8.007999999999999</v>
+        <v>7.888</v>
       </c>
       <c r="F80" t="n">
-        <v>89096.56389999999</v>
+        <v>19233.9955</v>
       </c>
       <c r="G80" t="n">
-        <v>-3260971.676658006</v>
+        <v>-3102394.275758006</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J80" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,33 +3354,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8.021000000000001</v>
+        <v>7.888</v>
       </c>
       <c r="C81" t="n">
-        <v>8.021000000000001</v>
+        <v>7.888</v>
       </c>
       <c r="D81" t="n">
-        <v>8.021000000000001</v>
+        <v>7.888</v>
       </c>
       <c r="E81" t="n">
-        <v>8.021000000000001</v>
+        <v>7.888</v>
       </c>
       <c r="F81" t="n">
-        <v>11888.2584</v>
+        <v>7169.8992</v>
       </c>
       <c r="G81" t="n">
-        <v>-3249083.418258006</v>
+        <v>-3102394.275758006</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
+      <c r="J81" t="n">
         <v>7.888</v>
       </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,33 +3396,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8.02</v>
+        <v>7.9</v>
       </c>
       <c r="C82" t="n">
-        <v>8.02</v>
+        <v>7.9</v>
       </c>
       <c r="D82" t="n">
-        <v>8.02</v>
+        <v>7.9</v>
       </c>
       <c r="E82" t="n">
-        <v>8.02</v>
+        <v>7.9</v>
       </c>
       <c r="F82" t="n">
-        <v>356480.6319</v>
+        <v>16045.0495</v>
       </c>
       <c r="G82" t="n">
-        <v>-3605564.050158006</v>
+        <v>-3086349.226258005</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
+      <c r="J82" t="n">
         <v>7.888</v>
       </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,33 +3438,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8.077</v>
+        <v>7.9</v>
       </c>
       <c r="C83" t="n">
-        <v>8.141</v>
+        <v>7.836</v>
       </c>
       <c r="D83" t="n">
-        <v>8.141</v>
+        <v>7.9</v>
       </c>
       <c r="E83" t="n">
-        <v>8.077</v>
+        <v>7.836</v>
       </c>
       <c r="F83" t="n">
-        <v>224706.3718</v>
+        <v>181762.0885</v>
       </c>
       <c r="G83" t="n">
-        <v>-3380857.678358006</v>
+        <v>-3268111.314758006</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J83" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,33 +3480,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8.048</v>
+        <v>7.94</v>
       </c>
       <c r="C84" t="n">
-        <v>8.02</v>
+        <v>7.94</v>
       </c>
       <c r="D84" t="n">
-        <v>8.048</v>
+        <v>7.94</v>
       </c>
       <c r="E84" t="n">
-        <v>8.02</v>
+        <v>7.94</v>
       </c>
       <c r="F84" t="n">
-        <v>224706.3718</v>
+        <v>755.6675062972292</v>
       </c>
       <c r="G84" t="n">
-        <v>-3605564.050158006</v>
+        <v>-3267355.647251708</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J84" t="n">
+        <v>7.836</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,33 +3522,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8.138999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="C85" t="n">
-        <v>8.321999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="D85" t="n">
-        <v>8.321999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="E85" t="n">
-        <v>8.138999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F85" t="n">
-        <v>507489.2581</v>
+        <v>19585.0882</v>
       </c>
       <c r="G85" t="n">
-        <v>-3098074.792058006</v>
+        <v>-3286940.735451709</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7.888</v>
-      </c>
+      <c r="J85" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,76 +3564,80 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.321</v>
+        <v>7.85</v>
       </c>
       <c r="C86" t="n">
-        <v>8.321</v>
+        <v>7.85</v>
       </c>
       <c r="D86" t="n">
-        <v>8.321</v>
+        <v>7.85</v>
       </c>
       <c r="E86" t="n">
-        <v>8.321</v>
+        <v>7.85</v>
       </c>
       <c r="F86" t="n">
-        <v>7846.8616</v>
+        <v>26403.8948</v>
       </c>
       <c r="G86" t="n">
-        <v>-3105921.653658006</v>
+        <v>-3313344.630251708</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>7.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1.049893509127789</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1.045640501150601</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.125</v>
+        <v>7.93</v>
       </c>
       <c r="C87" t="n">
-        <v>8.125</v>
+        <v>7.93</v>
       </c>
       <c r="D87" t="n">
-        <v>8.125</v>
+        <v>7.93</v>
       </c>
       <c r="E87" t="n">
-        <v>8.125</v>
+        <v>7.93</v>
       </c>
       <c r="F87" t="n">
-        <v>7846.8616</v>
+        <v>17047.5088</v>
       </c>
       <c r="G87" t="n">
-        <v>-3113768.515258006</v>
+        <v>-3296297.121451708</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>7.85</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3780,22 +3648,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.318</v>
+        <v>7.94</v>
       </c>
       <c r="C88" t="n">
-        <v>8.318</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>8.318</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>8.318</v>
+        <v>7.94</v>
       </c>
       <c r="F88" t="n">
-        <v>183533.8711</v>
+        <v>218864.6291937028</v>
       </c>
       <c r="G88" t="n">
-        <v>-2930234.644158006</v>
+        <v>-3077432.492258006</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3805,7 +3673,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3816,32 +3688,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.318</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>8.318</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>8.318</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>8.318</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>20435.4777</v>
+        <v>107952.1817</v>
       </c>
       <c r="G89" t="n">
-        <v>-2930234.644158006</v>
+        <v>-3077432.492258006</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3852,32 +3728,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.162000000000001</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>8.02</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>8.162000000000001</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>8.02</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>511818.1869</v>
+        <v>160897.3913</v>
       </c>
       <c r="G90" t="n">
-        <v>-3442052.831058006</v>
+        <v>-3077432.492258006</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3888,32 +3768,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.227</v>
+        <v>8.09</v>
       </c>
       <c r="C91" t="n">
-        <v>8.227</v>
+        <v>8.09</v>
       </c>
       <c r="D91" t="n">
-        <v>8.227</v>
+        <v>8.09</v>
       </c>
       <c r="E91" t="n">
-        <v>8.227</v>
+        <v>8.09</v>
       </c>
       <c r="F91" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G91" t="n">
-        <v>-3441991.831058006</v>
+        <v>-3077363.492258006</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3924,32 +3808,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8.148</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>8.148999999999999</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>8.148999999999999</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>8.148</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>40093.4152</v>
+        <v>17982.017</v>
       </c>
       <c r="G92" t="n">
-        <v>-3482085.246258006</v>
+        <v>-3095345.509258006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3960,22 +3848,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8.083</v>
+        <v>8.007</v>
       </c>
       <c r="C93" t="n">
-        <v>8.083</v>
+        <v>7.993</v>
       </c>
       <c r="D93" t="n">
-        <v>8.083</v>
+        <v>8.007</v>
       </c>
       <c r="E93" t="n">
-        <v>8.083</v>
+        <v>7.993</v>
       </c>
       <c r="F93" t="n">
-        <v>1270</v>
+        <v>5487.9163</v>
       </c>
       <c r="G93" t="n">
-        <v>-3483355.246258006</v>
+        <v>-3100833.425558006</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3985,7 +3873,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3996,22 +3888,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8.237</v>
+        <v>7.993</v>
       </c>
       <c r="C94" t="n">
-        <v>8.237</v>
+        <v>7.993</v>
       </c>
       <c r="D94" t="n">
-        <v>8.237</v>
+        <v>7.993</v>
       </c>
       <c r="E94" t="n">
-        <v>8.237</v>
+        <v>7.992</v>
       </c>
       <c r="F94" t="n">
-        <v>12844.3938</v>
+        <v>48487.1838</v>
       </c>
       <c r="G94" t="n">
-        <v>-3470510.852458006</v>
+        <v>-3100833.425558006</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4021,7 +3913,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4032,22 +3928,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8.138</v>
+        <v>7.993</v>
       </c>
       <c r="C95" t="n">
-        <v>8.138</v>
+        <v>7.993</v>
       </c>
       <c r="D95" t="n">
-        <v>8.138</v>
+        <v>7.993</v>
       </c>
       <c r="E95" t="n">
-        <v>8.138</v>
+        <v>7.993</v>
       </c>
       <c r="F95" t="n">
-        <v>372.6734</v>
+        <v>27383.8986</v>
       </c>
       <c r="G95" t="n">
-        <v>-3470883.525858006</v>
+        <v>-3100833.425558006</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4057,7 +3953,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4068,22 +3968,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8.15</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>8.15</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>8.15</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>8.15</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>29165.4358</v>
+        <v>16082.183</v>
       </c>
       <c r="G96" t="n">
-        <v>-3441718.090058006</v>
+        <v>-3084751.242558006</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4093,7 +3993,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4104,22 +4008,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8.220000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="C97" t="n">
-        <v>8.220000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="D97" t="n">
-        <v>8.220000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="E97" t="n">
-        <v>8.220000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="F97" t="n">
-        <v>2514.3427</v>
+        <v>69</v>
       </c>
       <c r="G97" t="n">
-        <v>-3439203.747358006</v>
+        <v>-3084682.242558006</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4129,7 +4033,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4140,32 +4048,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8.23</v>
+        <v>8.09</v>
       </c>
       <c r="C98" t="n">
-        <v>8.23</v>
+        <v>8.09</v>
       </c>
       <c r="D98" t="n">
-        <v>8.23</v>
+        <v>8.09</v>
       </c>
       <c r="E98" t="n">
-        <v>8.23</v>
+        <v>8.09</v>
       </c>
       <c r="F98" t="n">
-        <v>5328.3316</v>
+        <v>10831.4612</v>
       </c>
       <c r="G98" t="n">
-        <v>-3433875.415758006</v>
+        <v>-3084682.242558006</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4176,32 +4088,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.220000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="C99" t="n">
-        <v>8.23</v>
+        <v>8.09</v>
       </c>
       <c r="D99" t="n">
-        <v>8.23</v>
+        <v>8.09</v>
       </c>
       <c r="E99" t="n">
-        <v>8.220000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="F99" t="n">
-        <v>107905.9562</v>
+        <v>703.2301</v>
       </c>
       <c r="G99" t="n">
-        <v>-3433875.415758006</v>
+        <v>-3084682.242558006</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4212,32 +4128,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>118892.2124</v>
+        <v>2661.9417</v>
       </c>
       <c r="G100" t="n">
-        <v>-3552767.628158006</v>
+        <v>-3082020.300858006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4248,32 +4168,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>8.228999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>29272.5803</v>
+        <v>9709.8766</v>
       </c>
       <c r="G101" t="n">
-        <v>-3552767.628158006</v>
+        <v>-3082020.300858006</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4284,32 +4208,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8.15</v>
+        <v>8.09</v>
       </c>
       <c r="C102" t="n">
-        <v>8.138999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="D102" t="n">
-        <v>8.15</v>
+        <v>8.09</v>
       </c>
       <c r="E102" t="n">
-        <v>8.138999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="F102" t="n">
-        <v>204577.462</v>
+        <v>74626.14079999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-3757345.090158006</v>
+        <v>-3156646.441658006</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4320,32 +4248,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8.138999999999999</v>
+        <v>8.032</v>
       </c>
       <c r="C103" t="n">
-        <v>8.140000000000001</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>8.140000000000001</v>
+        <v>8.032</v>
       </c>
       <c r="E103" t="n">
-        <v>8.138999999999999</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>162303.1025</v>
+        <v>42431.0588</v>
       </c>
       <c r="G103" t="n">
-        <v>-3595041.987658006</v>
+        <v>-3199077.500458006</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4356,32 +4288,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8.236000000000001</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>8.236000000000001</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>8.236000000000001</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>8.236000000000001</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G104" t="n">
-        <v>-3594980.987658006</v>
+        <v>-3199015.500458006</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4392,32 +4328,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8.15</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>8.138999999999999</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>8.15</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>8.138999999999999</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>131521.1449</v>
+        <v>89889.0613</v>
       </c>
       <c r="G105" t="n">
-        <v>-3726502.132558006</v>
+        <v>-3199015.500458006</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4428,36 +4368,1200 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.138999999999999</v>
+        <v>8.023</v>
       </c>
       <c r="C106" t="n">
-        <v>8.138999999999999</v>
+        <v>8.023</v>
       </c>
       <c r="D106" t="n">
-        <v>8.138999999999999</v>
+        <v>8.023</v>
       </c>
       <c r="E106" t="n">
-        <v>8.138999999999999</v>
+        <v>8.023</v>
       </c>
       <c r="F106" t="n">
-        <v>33737.4069</v>
+        <v>17948.398</v>
       </c>
       <c r="G106" t="n">
-        <v>-3726502.132558006</v>
+        <v>-3216963.898458006</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8.023</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.023</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F107" t="n">
+        <v>13521.1573</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-3230485.055758006</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8.007999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>8.007999999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8.007999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.007999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>119583.1848</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-3350068.240558006</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8.007999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.007999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>89096.56389999999</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-3260971.676658006</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8.021000000000001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>8.021000000000001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.021000000000001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8.021000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>11888.2584</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-3249083.418258006</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="C111" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F111" t="n">
+        <v>356480.6319</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-3605564.050158006</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8.077</v>
+      </c>
+      <c r="C112" t="n">
+        <v>8.141</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.141</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8.077</v>
+      </c>
+      <c r="F112" t="n">
+        <v>224706.3718</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3380857.678358006</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8.048</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.048</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F113" t="n">
+        <v>224706.3718</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-3605564.050158006</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>8.321999999999999</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.321999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>507489.2581</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3098074.792058006</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8.321</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.321</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.321</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8.321</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7846.8616</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-3105921.653658006</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="C116" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7846.8616</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3113768.515258006</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="D117" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="F117" t="n">
+        <v>183533.8711</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2930234.644158006</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="C118" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="E118" t="n">
+        <v>8.318</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20435.4777</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2930234.644158006</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.162000000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8.162000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F119" t="n">
+        <v>511818.1869</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3442052.831058006</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8.227</v>
+      </c>
+      <c r="C120" t="n">
+        <v>8.227</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8.227</v>
+      </c>
+      <c r="E120" t="n">
+        <v>8.227</v>
+      </c>
+      <c r="F120" t="n">
+        <v>61</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-3441991.831058006</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8.148</v>
+      </c>
+      <c r="C121" t="n">
+        <v>8.148999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8.148999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>8.148</v>
+      </c>
+      <c r="F121" t="n">
+        <v>40093.4152</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-3482085.246258006</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8.083</v>
+      </c>
+      <c r="C122" t="n">
+        <v>8.083</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8.083</v>
+      </c>
+      <c r="E122" t="n">
+        <v>8.083</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1270</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-3483355.246258006</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8.237</v>
+      </c>
+      <c r="C123" t="n">
+        <v>8.237</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8.237</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8.237</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12844.3938</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-3470510.852458006</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8.138</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8.138</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8.138</v>
+      </c>
+      <c r="E124" t="n">
+        <v>8.138</v>
+      </c>
+      <c r="F124" t="n">
+        <v>372.6734</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3470883.525858006</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C125" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F125" t="n">
+        <v>29165.4358</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-3441718.090058006</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2514.3427</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-3439203.747358006</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="C127" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E127" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5328.3316</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-3433875.415758006</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>107905.9562</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3433875.415758006</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>118892.2124</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-3552767.628158006</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>29272.5803</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-3552767.628158006</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C131" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>204577.462</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-3757345.090158006</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>162303.1025</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3595041.987658006</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8.236000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>8.236000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8.236000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>8.236000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>61</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3594980.987658006</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E134" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>131521.1449</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3726502.132558006</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>33737.4069</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3726502.132558006</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest PCM.xlsx
+++ b/BackTest/2020-01-21 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-1368830.625800001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-1788830.625800001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-1978958.302300001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-2832611.054332582</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-2978876.497994791</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-2994848.882194791</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-2988628.465494791</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,19 @@
         <v>-2985759.120294791</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>8.019</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.019</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2173,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>8.019</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2212,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>8.019</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2249,15 @@
         <v>-2985690.120294791</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2282,19 @@
         <v>-2985826.268394791</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8.179</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2321,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2360,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2399,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2438,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2477,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2514,23 @@
         <v>-3153664.325156999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>8.08</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2555,23 @@
         <v>-3153664.325156999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>7.972</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2598,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2637,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,22 +2676,19 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2840,22 +2715,19 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2882,22 +2754,19 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>7.822</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,22 +2793,19 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>7.823</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2966,22 +2832,19 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3008,22 +2871,19 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3050,22 +2910,19 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>7.833</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3090,22 +2947,21 @@
         <v>-3045036.736158006</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3130,22 +2986,21 @@
         <v>-3040713.410358006</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3172,20 +3027,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3210,22 +3064,21 @@
         <v>-3076720.793358006</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3250,22 +3103,21 @@
         <v>-3076720.793358006</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3290,22 +3142,23 @@
         <v>-3083160.280258005</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>7.947</v>
+      </c>
+      <c r="J79" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3332,22 +3185,19 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3374,22 +3224,19 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3416,22 +3263,19 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3458,22 +3302,19 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3500,22 +3341,19 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>7.836</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3542,22 +3380,19 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3584,22 +3419,19 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3624,24 +3456,23 @@
         <v>-3296297.121451708</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>7.85</v>
       </c>
       <c r="J87" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>8.179</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3666,22 +3497,21 @@
         <v>-3077432.492258006</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3706,22 +3536,23 @@
         <v>-3077432.492258006</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>8.010999999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3746,22 +3577,21 @@
         <v>-3077432.492258006</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3786,22 +3616,21 @@
         <v>-3077363.492258006</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3828,20 +3657,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3866,22 +3694,23 @@
         <v>-3100833.425558006</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>8.007999999999999</v>
+      </c>
+      <c r="J93" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3906,22 +3735,23 @@
         <v>-3100833.425558006</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>7.993</v>
+      </c>
+      <c r="J94" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3946,22 +3776,23 @@
         <v>-3100833.425558006</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>7.993</v>
+      </c>
+      <c r="J95" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3986,22 +3817,23 @@
         <v>-3084751.242558006</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>7.993</v>
+      </c>
+      <c r="J96" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4026,22 +3858,23 @@
         <v>-3084682.242558006</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>8.007999999999999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4066,22 +3899,23 @@
         <v>-3084682.242558006</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>8.09</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4106,22 +3940,23 @@
         <v>-3084682.242558006</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>8.09</v>
+      </c>
+      <c r="J99" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4146,22 +3981,21 @@
         <v>-3082020.300858006</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4186,22 +4020,21 @@
         <v>-3082020.300858006</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4226,22 +4059,21 @@
         <v>-3156646.441658006</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4266,22 +4098,21 @@
         <v>-3199077.500458006</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4306,22 +4137,21 @@
         <v>-3199015.500458006</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4346,22 +4176,21 @@
         <v>-3199015.500458006</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4386,22 +4215,21 @@
         <v>-3216963.898458006</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4426,22 +4254,23 @@
         <v>-3230485.055758006</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>8.023</v>
+      </c>
+      <c r="J107" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4466,22 +4295,21 @@
         <v>-3350068.240558006</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4506,22 +4334,21 @@
         <v>-3260971.676658006</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4546,22 +4373,21 @@
         <v>-3249083.418258006</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4586,22 +4412,21 @@
         <v>-3605564.050158006</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4626,22 +4451,21 @@
         <v>-3380857.678358006</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4668,20 +4492,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4708,20 +4531,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4748,20 +4570,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4788,20 +4609,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4828,20 +4648,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4868,20 +4687,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4908,20 +4726,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4948,20 +4765,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4988,20 +4804,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5028,20 +4843,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5066,22 +4880,23 @@
         <v>-3470510.852458006</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>8.083</v>
+      </c>
+      <c r="J123" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5106,22 +4921,23 @@
         <v>-3470883.525858006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>8.237</v>
+      </c>
+      <c r="J124" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5146,22 +4962,23 @@
         <v>-3441718.090058006</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>8.138</v>
+      </c>
+      <c r="J125" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5186,22 +5003,23 @@
         <v>-3439203.747358006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>8.15</v>
+      </c>
+      <c r="J126" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5226,22 +5044,23 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J127" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5268,20 +5087,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5308,20 +5126,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5348,20 +5165,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5388,20 +5204,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5428,20 +5243,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5468,20 +5282,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5508,20 +5321,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5548,22 +5360,21 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest PCM.xlsx
+++ b/BackTest/2020-01-21 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1266072.1341</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1319697.3676</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1319697.3676</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1368830.625800001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1788830.625800001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1978958.302300001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2207703.404402279</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2404959.956702279</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2517728.667202279</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2957332.190102279</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2832611.054332582</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2978876.497994791</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2994848.882194791</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2988628.465494791</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,14 +2134,10 @@
         <v>-2985759.120294791</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8.019</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8.019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2174,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>8.019</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>8.019</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2249,7 +2233,7 @@
         <v>-2985690.120294791</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2282,14 +2266,10 @@
         <v>-2985826.268394791</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="J57" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2322,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2361,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2400,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2439,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2478,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2514,19 +2464,11 @@
         <v>-3153664.325156999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="J63" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2555,19 +2497,11 @@
         <v>-3153664.325156999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.972</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2638,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>8.179</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2676,13 +2598,13 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I67" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2715,10 +2637,10 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I68" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2754,10 +2676,10 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I69" t="n">
+        <v>7.822</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2793,10 +2715,10 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I70" t="n">
+        <v>7.823</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,10 +2754,10 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I71" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2871,10 +2793,10 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I72" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2910,10 +2832,10 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I73" t="n">
+        <v>7.833</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2949,10 +2871,10 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I74" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2988,10 +2910,10 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I75" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,12 +2947,12 @@
         <v>-3076720.793358006</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>8.179</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.975</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3066,10 +2988,10 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I77" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,12 +3025,10 @@
         <v>-3076720.793358006</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,14 +3062,10 @@
         <v>-3083160.280258005</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="J79" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,10 +3101,10 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I80" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,10 +3140,10 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I81" t="n">
+        <v>7.888</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3263,10 +3179,10 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I82" t="n">
+        <v>7.888</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,10 +3218,10 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I83" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,10 +3257,10 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I84" t="n">
+        <v>7.836</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,10 +3296,10 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I85" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,10 +3335,10 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I86" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3456,14 +3372,12 @@
         <v>-3296297.121451708</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>7.85</v>
       </c>
-      <c r="J87" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3499,10 +3413,10 @@
       <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="I88" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,14 +3450,10 @@
         <v>-3077432.492258006</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>8.010999999999999</v>
-      </c>
-      <c r="J89" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,12 +3487,10 @@
         <v>-3077432.492258006</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,12 +3524,10 @@
         <v>-3077363.492258006</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,9 +3564,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,14 +3598,10 @@
         <v>-3100833.425558006</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>8.007999999999999</v>
-      </c>
-      <c r="J93" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,14 +3635,12 @@
         <v>-3100833.425558006</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>7.993</v>
       </c>
-      <c r="J94" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3776,14 +3674,10 @@
         <v>-3100833.425558006</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>7.993</v>
-      </c>
-      <c r="J95" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3817,14 +3711,10 @@
         <v>-3084751.242558006</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>7.993</v>
-      </c>
-      <c r="J96" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,14 +3748,10 @@
         <v>-3084682.242558006</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>8.007999999999999</v>
-      </c>
-      <c r="J97" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,14 +3785,10 @@
         <v>-3084682.242558006</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="J98" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,14 +3822,10 @@
         <v>-3084682.242558006</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="J99" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,12 +3859,10 @@
         <v>-3082020.300858006</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,12 +3896,10 @@
         <v>-3082020.300858006</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,12 +3933,10 @@
         <v>-3156646.441658006</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,12 +3970,10 @@
         <v>-3199077.500458006</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,12 +4007,10 @@
         <v>-3199015.500458006</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,12 +4044,10 @@
         <v>-3199015.500458006</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,12 +4081,10 @@
         <v>-3216963.898458006</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,14 +4118,10 @@
         <v>-3230485.055758006</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>8.023</v>
-      </c>
-      <c r="J107" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,12 +4155,10 @@
         <v>-3350068.240558006</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,12 +4192,10 @@
         <v>-3260971.676658006</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4373,12 +4229,10 @@
         <v>-3249083.418258006</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,12 +4266,10 @@
         <v>-3605564.050158006</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,12 +4303,10 @@
         <v>-3380857.678358006</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4493,9 +4343,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,9 +4380,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,9 +4417,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,9 +4454,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,9 +4491,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4688,9 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,9 +4565,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,9 +4602,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4805,9 +4639,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,9 +4676,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,14 +4710,10 @@
         <v>-3470510.852458006</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>8.083</v>
-      </c>
-      <c r="J123" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4921,14 +4747,10 @@
         <v>-3470883.525858006</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>8.237</v>
-      </c>
-      <c r="J124" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,14 +4784,10 @@
         <v>-3441718.090058006</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>8.138</v>
-      </c>
-      <c r="J125" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5003,14 +4821,10 @@
         <v>-3439203.747358006</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="J126" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,14 +4858,10 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="J127" t="n">
-        <v>8.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,9 +4898,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,9 +4935,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,9 +4972,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,9 +5009,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,9 +5046,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,9 +5083,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,9 +5120,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,9 +5157,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>8.179</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,6 +5169,6 @@
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest PCM.xlsx
+++ b/BackTest/2020-01-21 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1266072.1341</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1319697.3676</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1319697.3676</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1368830.625800001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1788830.625800001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2207703.404402279</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2404959.956702279</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2517728.667202279</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2957332.190102279</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3000736.153256999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3053664.325156999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,17 +2596,11 @@
         <v>-3175828.767556999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2635,17 +2629,11 @@
         <v>-3211462.457957</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2674,17 +2662,11 @@
         <v>-3065169.868156999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7.822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2713,17 +2695,11 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2752,17 +2728,11 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7.947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2791,17 +2761,11 @@
         <v>-3094117.330958006</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7.947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2830,17 +2794,11 @@
         <v>-3045036.736158006</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2869,17 +2827,11 @@
         <v>-3045036.736158006</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2908,17 +2860,11 @@
         <v>-3040713.410358006</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2947,17 +2893,11 @@
         <v>-3076720.793358006</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2986,17 +2926,11 @@
         <v>-3076720.793358006</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7.947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3029,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3066,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3107,7 +3033,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3635,11 +3561,9 @@
         <v>-3100833.425558006</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>7.993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4414,18 +4338,16 @@
         <v>-3105921.653658006</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4451,15 +4373,11 @@
         <v>-3113768.515258006</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4492,11 +4410,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4525,15 +4439,11 @@
         <v>-2930234.644158006</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4562,15 +4472,11 @@
         <v>-3442052.831058006</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4599,15 +4505,11 @@
         <v>-3441991.831058006</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4636,15 +4538,11 @@
         <v>-3482085.246258006</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4673,15 +4571,11 @@
         <v>-3483355.246258006</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4714,11 +4608,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4751,11 +4641,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4788,11 +4674,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4821,15 +4703,11 @@
         <v>-3439203.747358006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4858,15 +4736,11 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4895,15 +4769,11 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4932,15 +4802,11 @@
         <v>-3552767.628158006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4973,11 +4839,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5010,11 +4872,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5043,15 +4901,11 @@
         <v>-3595041.987658006</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5084,11 +4938,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5117,15 +4967,11 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5154,21 +5000,17 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest PCM.xlsx
+++ b/BackTest/2020-01-21 BackTest PCM.xlsx
@@ -2398,7 +2398,7 @@
         <v>-3000736.153256999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3053664.325156999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,11 +2596,17 @@
         <v>-3175828.767556999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.95</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2635,17 @@
         <v>-3211462.457957</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2674,17 @@
         <v>-3065169.868156999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.822</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2713,17 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7.823</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2752,17 @@
         <v>-3065036.736157503</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.947</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2795,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2832,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2869,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2906,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +2943,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +2980,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3017,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3054,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,15 +3087,13 @@
         <v>-3102394.275758006</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3064,11 +3124,9 @@
         <v>-3102394.275758006</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3259,11 +3317,9 @@
         <v>-3313344.630251708</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3298,11 +3354,9 @@
         <v>-3296297.121451708</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3931,9 +3985,11 @@
         <v>-3199015.500458006</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>8.007999999999999</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4190,9 +4246,11 @@
         <v>-3605564.050158006</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>8.021000000000001</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4264,18 +4322,16 @@
         <v>-3605564.050158006</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4305,11 +4361,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4342,12 +4394,10 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4439,7 +4489,7 @@
         <v>-2930234.644158006</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4472,7 +4522,7 @@
         <v>-3442052.831058006</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4505,7 +4555,7 @@
         <v>-3441991.831058006</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4538,7 +4588,7 @@
         <v>-3482085.246258006</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4571,7 +4621,7 @@
         <v>-3483355.246258006</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4703,7 +4753,7 @@
         <v>-3439203.747358006</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4736,7 +4786,7 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4769,7 +4819,7 @@
         <v>-3433875.415758006</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4802,7 +4852,7 @@
         <v>-3552767.628158006</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4901,7 +4951,7 @@
         <v>-3595041.987658006</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4967,7 +5017,7 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5000,7 +5050,7 @@
         <v>-3726502.132558006</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>

--- a/BackTest/2020-01-21 BackTest PCM.xlsx
+++ b/BackTest/2020-01-21 BackTest PCM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2384.2462</v>
       </c>
       <c r="G2" t="n">
-        <v>-1266072.1341</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>53625.2335</v>
       </c>
       <c r="G3" t="n">
-        <v>-1319697.3676</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>33253.4817</v>
       </c>
       <c r="G4" t="n">
-        <v>-1319697.3676</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>49133.2582</v>
       </c>
       <c r="G5" t="n">
-        <v>-1368830.625800001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>420000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1788830.625800001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>190127.6765</v>
       </c>
       <c r="G7" t="n">
-        <v>-1978958.302300001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>238742.7432</v>
       </c>
       <c r="G8" t="n">
-        <v>-2217701.0455</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>9997.641097721518</v>
       </c>
       <c r="G9" t="n">
-        <v>-2207703.404402279</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>197256.5523</v>
       </c>
       <c r="G10" t="n">
-        <v>-2404959.956702279</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>112768.7105</v>
       </c>
       <c r="G11" t="n">
-        <v>-2517728.667202279</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>439603.5229</v>
       </c>
       <c r="G12" t="n">
-        <v>-2957332.190102279</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>6147.7742</v>
       </c>
       <c r="G13" t="n">
-        <v>-2963479.964302279</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9900</v>
       </c>
       <c r="G14" t="n">
-        <v>-2953579.964302279</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>16387.0563</v>
       </c>
       <c r="G15" t="n">
-        <v>-2937192.908002279</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>79107.6635</v>
       </c>
       <c r="G16" t="n">
-        <v>-3016300.571502279</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>19933.2662</v>
       </c>
       <c r="G17" t="n">
-        <v>-3036233.837702279</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,19 @@
         <v>411.4936</v>
       </c>
       <c r="G18" t="n">
-        <v>-3036233.837702279</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.808</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +957,23 @@
         <v>2536.461</v>
       </c>
       <c r="G19" t="n">
-        <v>-3033697.376702279</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +995,23 @@
         <v>76571.2025</v>
       </c>
       <c r="G20" t="n">
-        <v>-2957126.174202279</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>7.885</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1033,23 @@
         <v>19933.2662</v>
       </c>
       <c r="G21" t="n">
-        <v>-2957126.174202279</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>7.89</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1071,23 @@
         <v>12544.0302</v>
       </c>
       <c r="G22" t="n">
-        <v>-2944582.144002279</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>7.89</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1109,21 @@
         <v>168260.5285</v>
       </c>
       <c r="G23" t="n">
-        <v>-2776321.615502279</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1145,21 @@
         <v>2536.461</v>
       </c>
       <c r="G24" t="n">
-        <v>-2773785.154502279</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1181,21 @@
         <v>2678.862407488718</v>
       </c>
       <c r="G25" t="n">
-        <v>-2771106.29209479</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1217,21 @@
         <v>18253.669</v>
       </c>
       <c r="G26" t="n">
-        <v>-2789359.96109479</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1253,21 @@
         <v>2787.058</v>
       </c>
       <c r="G27" t="n">
-        <v>-2792147.01909479</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1289,21 @@
         <v>331.4221</v>
       </c>
       <c r="G28" t="n">
-        <v>-2792147.01909479</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1325,21 @@
         <v>31284.5599</v>
       </c>
       <c r="G29" t="n">
-        <v>-2792147.01909479</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1361,21 @@
         <v>5286.2071</v>
       </c>
       <c r="G30" t="n">
-        <v>-2792147.01909479</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1397,21 @@
         <v>632.8697</v>
       </c>
       <c r="G31" t="n">
-        <v>-2792779.88879479</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1433,21 @@
         <v>16361.2963</v>
       </c>
       <c r="G32" t="n">
-        <v>-2792779.88879479</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1469,21 @@
         <v>18451.4255</v>
       </c>
       <c r="G33" t="n">
-        <v>-2774328.463294791</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1505,21 @@
         <v>54128.9318</v>
       </c>
       <c r="G34" t="n">
-        <v>-2720199.531494791</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1541,21 @@
         <v>2759</v>
       </c>
       <c r="G35" t="n">
-        <v>-2717440.531494791</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1577,21 @@
         <v>15494.669</v>
       </c>
       <c r="G36" t="n">
-        <v>-2717440.531494791</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1613,21 @@
         <v>74990.4571</v>
       </c>
       <c r="G37" t="n">
-        <v>-2717440.531494791</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1649,21 @@
         <v>2675</v>
       </c>
       <c r="G38" t="n">
-        <v>-2717440.531494791</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1685,21 @@
         <v>170444.9841</v>
       </c>
       <c r="G39" t="n">
-        <v>-2887885.515594791</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1721,21 @@
         <v>90485.12609999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-2887885.515594791</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1757,21 @@
         <v>27199.7055</v>
       </c>
       <c r="G41" t="n">
-        <v>-2860685.810094791</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1793,21 @@
         <v>5590.1462</v>
       </c>
       <c r="G42" t="n">
-        <v>-2855095.663894791</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1829,21 @@
         <v>29533.8668</v>
       </c>
       <c r="G43" t="n">
-        <v>-2855095.663894791</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1865,21 @@
         <v>12655.3218</v>
       </c>
       <c r="G44" t="n">
-        <v>-2842440.342094791</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1901,21 @@
         <v>9829.287762208589</v>
       </c>
       <c r="G45" t="n">
-        <v>-2832611.054332582</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1937,21 @@
         <v>17435.5693</v>
       </c>
       <c r="G46" t="n">
-        <v>-2832611.054332582</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1973,21 @@
         <v>38091.32083779141</v>
       </c>
       <c r="G47" t="n">
-        <v>-2832611.054332582</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2009,21 @@
         <v>146265.4436622086</v>
       </c>
       <c r="G48" t="n">
-        <v>-2978876.497994791</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2045,21 @@
         <v>15972.3842</v>
       </c>
       <c r="G49" t="n">
-        <v>-2994848.882194791</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2081,21 @@
         <v>6220.4167</v>
       </c>
       <c r="G50" t="n">
-        <v>-2988628.465494791</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2117,21 @@
         <v>97167.4631377914</v>
       </c>
       <c r="G51" t="n">
-        <v>-2988628.465494791</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2153,21 @@
         <v>2869.3452</v>
       </c>
       <c r="G52" t="n">
-        <v>-2985759.120294791</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2189,21 @@
         <v>30026.4785</v>
       </c>
       <c r="G53" t="n">
-        <v>-2985759.120294791</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2225,21 @@
         <v>69</v>
       </c>
       <c r="G54" t="n">
-        <v>-2985690.120294791</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2261,21 @@
         <v>6097.9718</v>
       </c>
       <c r="G55" t="n">
-        <v>-2985690.120294791</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2297,21 @@
         <v>136.1481</v>
       </c>
       <c r="G56" t="n">
-        <v>-2985690.120294791</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2333,21 @@
         <v>136.1481</v>
       </c>
       <c r="G57" t="n">
-        <v>-2985826.268394791</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2369,21 @@
         <v>26865.36586220859</v>
       </c>
       <c r="G58" t="n">
-        <v>-3012691.634256999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2405,21 @@
         <v>18661.254</v>
       </c>
       <c r="G59" t="n">
-        <v>-3012691.634256999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2441,21 @@
         <v>11955.481</v>
       </c>
       <c r="G60" t="n">
-        <v>-3000736.153256999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2477,21 @@
         <v>36171.1914</v>
       </c>
       <c r="G61" t="n">
-        <v>-3000736.153256999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2513,21 @@
         <v>52928.1719</v>
       </c>
       <c r="G62" t="n">
-        <v>-3053664.325156999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2549,21 @@
         <v>100000</v>
       </c>
       <c r="G63" t="n">
-        <v>-3153664.325156999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2585,21 @@
         <v>5619.4897</v>
       </c>
       <c r="G64" t="n">
-        <v>-3153664.325156999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2621,21 @@
         <v>14074.7587</v>
       </c>
       <c r="G65" t="n">
-        <v>-3153664.325156999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2657,21 @@
         <v>2060.7463</v>
       </c>
       <c r="G66" t="n">
-        <v>-3155725.071457</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,24 +2693,21 @@
         <v>20103.6961</v>
       </c>
       <c r="G67" t="n">
-        <v>-3175828.767556999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2632,24 +2729,21 @@
         <v>35633.6904</v>
       </c>
       <c r="G68" t="n">
-        <v>-3211462.457957</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2671,24 +2765,21 @@
         <v>146292.5898</v>
       </c>
       <c r="G69" t="n">
-        <v>-3065169.868156999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>7.822</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,24 +2801,21 @@
         <v>133.1319994966654</v>
       </c>
       <c r="G70" t="n">
-        <v>-3065036.736157503</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>7.823</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2749,24 +2837,21 @@
         <v>380.5222</v>
       </c>
       <c r="G71" t="n">
-        <v>-3065036.736157503</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2788,22 +2873,21 @@
         <v>29080.59480050334</v>
       </c>
       <c r="G72" t="n">
-        <v>-3094117.330958006</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2825,22 +2909,21 @@
         <v>49080.5948</v>
       </c>
       <c r="G73" t="n">
-        <v>-3045036.736158006</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2862,22 +2945,21 @@
         <v>17602.5965</v>
       </c>
       <c r="G74" t="n">
-        <v>-3045036.736158006</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2899,22 +2981,21 @@
         <v>4323.3258</v>
       </c>
       <c r="G75" t="n">
-        <v>-3040713.410358006</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2936,22 +3017,21 @@
         <v>36007.383</v>
       </c>
       <c r="G76" t="n">
-        <v>-3076720.793358006</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2973,22 +3053,21 @@
         <v>77433.007</v>
       </c>
       <c r="G77" t="n">
-        <v>-3076720.793358006</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3010,22 +3089,21 @@
         <v>11319</v>
       </c>
       <c r="G78" t="n">
-        <v>-3076720.793358006</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3047,22 +3125,21 @@
         <v>6439.4869</v>
       </c>
       <c r="G79" t="n">
-        <v>-3083160.280258005</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3084,22 +3161,21 @@
         <v>19233.9955</v>
       </c>
       <c r="G80" t="n">
-        <v>-3102394.275758006</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3121,22 +3197,21 @@
         <v>7169.8992</v>
       </c>
       <c r="G81" t="n">
-        <v>-3102394.275758006</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3158,24 +3233,21 @@
         <v>16045.0495</v>
       </c>
       <c r="G82" t="n">
-        <v>-3086349.226258005</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>7.888</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3197,24 +3269,21 @@
         <v>181762.0885</v>
       </c>
       <c r="G83" t="n">
-        <v>-3268111.314758006</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3236,24 +3305,21 @@
         <v>755.6675062972292</v>
       </c>
       <c r="G84" t="n">
-        <v>-3267355.647251708</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>7.836</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3275,24 +3341,21 @@
         <v>19585.0882</v>
       </c>
       <c r="G85" t="n">
-        <v>-3286940.735451709</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3314,22 +3377,21 @@
         <v>26403.8948</v>
       </c>
       <c r="G86" t="n">
-        <v>-3313344.630251708</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3351,22 +3413,21 @@
         <v>17047.5088</v>
       </c>
       <c r="G87" t="n">
-        <v>-3296297.121451708</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3388,24 +3449,21 @@
         <v>218864.6291937028</v>
       </c>
       <c r="G88" t="n">
-        <v>-3077432.492258006</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3427,22 +3485,21 @@
         <v>107952.1817</v>
       </c>
       <c r="G89" t="n">
-        <v>-3077432.492258006</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3464,22 +3521,21 @@
         <v>160897.3913</v>
       </c>
       <c r="G90" t="n">
-        <v>-3077432.492258006</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3501,22 +3557,21 @@
         <v>69</v>
       </c>
       <c r="G91" t="n">
-        <v>-3077363.492258006</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3538,22 +3593,21 @@
         <v>17982.017</v>
       </c>
       <c r="G92" t="n">
-        <v>-3095345.509258006</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3575,22 +3629,21 @@
         <v>5487.9163</v>
       </c>
       <c r="G93" t="n">
-        <v>-3100833.425558006</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3612,22 +3665,21 @@
         <v>48487.1838</v>
       </c>
       <c r="G94" t="n">
-        <v>-3100833.425558006</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3649,22 +3701,21 @@
         <v>27383.8986</v>
       </c>
       <c r="G95" t="n">
-        <v>-3100833.425558006</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3686,22 +3737,21 @@
         <v>16082.183</v>
       </c>
       <c r="G96" t="n">
-        <v>-3084751.242558006</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3723,22 +3773,21 @@
         <v>69</v>
       </c>
       <c r="G97" t="n">
-        <v>-3084682.242558006</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3760,22 +3809,21 @@
         <v>10831.4612</v>
       </c>
       <c r="G98" t="n">
-        <v>-3084682.242558006</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3797,22 +3845,21 @@
         <v>703.2301</v>
       </c>
       <c r="G99" t="n">
-        <v>-3084682.242558006</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3834,22 +3881,21 @@
         <v>2661.9417</v>
       </c>
       <c r="G100" t="n">
-        <v>-3082020.300858006</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3871,22 +3917,21 @@
         <v>9709.8766</v>
       </c>
       <c r="G101" t="n">
-        <v>-3082020.300858006</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3908,22 +3953,21 @@
         <v>74626.14079999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-3156646.441658006</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3945,22 +3989,21 @@
         <v>42431.0588</v>
       </c>
       <c r="G103" t="n">
-        <v>-3199077.500458006</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3982,24 +4025,21 @@
         <v>62</v>
       </c>
       <c r="G104" t="n">
-        <v>-3199015.500458006</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>8.007999999999999</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4021,22 +4061,21 @@
         <v>89889.0613</v>
       </c>
       <c r="G105" t="n">
-        <v>-3199015.500458006</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4058,22 +4097,21 @@
         <v>17948.398</v>
       </c>
       <c r="G106" t="n">
-        <v>-3216963.898458006</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4095,22 +4133,21 @@
         <v>13521.1573</v>
       </c>
       <c r="G107" t="n">
-        <v>-3230485.055758006</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4132,22 +4169,21 @@
         <v>119583.1848</v>
       </c>
       <c r="G108" t="n">
-        <v>-3350068.240558006</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4169,22 +4205,21 @@
         <v>89096.56389999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-3260971.676658006</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4206,22 +4241,21 @@
         <v>11888.2584</v>
       </c>
       <c r="G110" t="n">
-        <v>-3249083.418258006</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4243,24 +4277,21 @@
         <v>356480.6319</v>
       </c>
       <c r="G111" t="n">
-        <v>-3605564.050158006</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>8.021000000000001</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>7.808</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4282,22 +4313,21 @@
         <v>224706.3718</v>
       </c>
       <c r="G112" t="n">
-        <v>-3380857.678358006</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4319,20 +4349,21 @@
         <v>224706.3718</v>
       </c>
       <c r="G113" t="n">
-        <v>-3605564.050158006</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
       </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4354,18 +4385,21 @@
         <v>507489.2581</v>
       </c>
       <c r="G114" t="n">
-        <v>-3098074.792058006</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4387,18 +4421,21 @@
         <v>7846.8616</v>
       </c>
       <c r="G115" t="n">
-        <v>-3105921.653658006</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4420,18 +4457,21 @@
         <v>7846.8616</v>
       </c>
       <c r="G116" t="n">
-        <v>-3113768.515258006</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4453,18 +4493,21 @@
         <v>183533.8711</v>
       </c>
       <c r="G117" t="n">
-        <v>-2930234.644158006</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4486,18 +4529,21 @@
         <v>20435.4777</v>
       </c>
       <c r="G118" t="n">
-        <v>-2930234.644158006</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4519,18 +4565,21 @@
         <v>511818.1869</v>
       </c>
       <c r="G119" t="n">
-        <v>-3442052.831058006</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4552,18 +4601,21 @@
         <v>61</v>
       </c>
       <c r="G120" t="n">
-        <v>-3441991.831058006</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4585,18 +4637,21 @@
         <v>40093.4152</v>
       </c>
       <c r="G121" t="n">
-        <v>-3482085.246258006</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4618,18 +4673,21 @@
         <v>1270</v>
       </c>
       <c r="G122" t="n">
-        <v>-3483355.246258006</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4651,18 +4709,21 @@
         <v>12844.3938</v>
       </c>
       <c r="G123" t="n">
-        <v>-3470510.852458006</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4684,18 +4745,21 @@
         <v>372.6734</v>
       </c>
       <c r="G124" t="n">
-        <v>-3470883.525858006</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4717,18 +4781,21 @@
         <v>29165.4358</v>
       </c>
       <c r="G125" t="n">
-        <v>-3441718.090058006</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4750,18 +4817,21 @@
         <v>2514.3427</v>
       </c>
       <c r="G126" t="n">
-        <v>-3439203.747358006</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4783,18 +4853,21 @@
         <v>5328.3316</v>
       </c>
       <c r="G127" t="n">
-        <v>-3433875.415758006</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4816,18 +4889,21 @@
         <v>107905.9562</v>
       </c>
       <c r="G128" t="n">
-        <v>-3433875.415758006</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4849,18 +4925,21 @@
         <v>118892.2124</v>
       </c>
       <c r="G129" t="n">
-        <v>-3552767.628158006</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4882,18 +4961,21 @@
         <v>29272.5803</v>
       </c>
       <c r="G130" t="n">
-        <v>-3552767.628158006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4915,18 +4997,21 @@
         <v>204577.462</v>
       </c>
       <c r="G131" t="n">
-        <v>-3757345.090158006</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4948,18 +5033,21 @@
         <v>162303.1025</v>
       </c>
       <c r="G132" t="n">
-        <v>-3595041.987658006</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4981,18 +5069,21 @@
         <v>61</v>
       </c>
       <c r="G133" t="n">
-        <v>-3594980.987658006</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5014,18 +5105,21 @@
         <v>131521.1449</v>
       </c>
       <c r="G134" t="n">
-        <v>-3726502.132558006</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5047,18 +5141,21 @@
         <v>33737.4069</v>
       </c>
       <c r="G135" t="n">
-        <v>-3726502.132558006</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>7.808</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
